--- a/output/StructureDefinition-social-history-observation.xlsx
+++ b/output/StructureDefinition-social-history-observation.xlsx
@@ -3613,7 +3613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>221</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>261</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>280</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>460</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>473</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>486</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>498</v>
       </c>
@@ -12699,12 +12699,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP88">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
